--- a/AAII_Financials/Quarterly/EOCCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOCCY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>EOCCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,206 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>473100</v>
+        <v>462900</v>
       </c>
       <c r="E8" s="3">
-        <v>456100</v>
+        <v>482700</v>
       </c>
       <c r="F8" s="3">
-        <v>669600</v>
+        <v>458300</v>
       </c>
       <c r="G8" s="3">
-        <v>552300</v>
+        <v>441900</v>
       </c>
       <c r="H8" s="3">
-        <v>1384000</v>
+        <v>648700</v>
       </c>
       <c r="I8" s="3">
+        <v>535100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1340700</v>
+      </c>
+      <c r="K8" s="3">
         <v>423500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>447900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>683800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>592100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>563900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>563600</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>213900</v>
+        <v>289000</v>
       </c>
       <c r="E9" s="3">
-        <v>280700</v>
+        <v>265500</v>
       </c>
       <c r="F9" s="3">
-        <v>294000</v>
+        <v>207200</v>
       </c>
       <c r="G9" s="3">
-        <v>229100</v>
+        <v>272000</v>
       </c>
       <c r="H9" s="3">
-        <v>787500</v>
+        <v>284800</v>
       </c>
       <c r="I9" s="3">
+        <v>222000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>762900</v>
+      </c>
+      <c r="K9" s="3">
         <v>250300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>243200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>285300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>317400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>385800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>259200</v>
+        <v>173900</v>
       </c>
       <c r="E10" s="3">
-        <v>175400</v>
+        <v>217200</v>
       </c>
       <c r="F10" s="3">
-        <v>375700</v>
+        <v>251100</v>
       </c>
       <c r="G10" s="3">
-        <v>323200</v>
+        <v>169900</v>
       </c>
       <c r="H10" s="3">
-        <v>596500</v>
+        <v>363900</v>
       </c>
       <c r="I10" s="3">
+        <v>313100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>577900</v>
+      </c>
+      <c r="K10" s="3">
         <v>173300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>204600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>398400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>274700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>178000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>233900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,84 +963,102 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>355600</v>
+        <v>4300</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>344500</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-3600</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-154200</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>33400</v>
+        <v>31100</v>
       </c>
       <c r="E15" s="3">
-        <v>34900</v>
+        <v>32600</v>
       </c>
       <c r="F15" s="3">
-        <v>35600</v>
+        <v>32300</v>
       </c>
       <c r="G15" s="3">
-        <v>39900</v>
+        <v>33800</v>
       </c>
       <c r="H15" s="3">
-        <v>112400</v>
+        <v>34500</v>
       </c>
       <c r="I15" s="3">
+        <v>38600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>108900</v>
+      </c>
+      <c r="K15" s="3">
         <v>39500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>36100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>43500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>42300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>42200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>290500</v>
+        <v>362100</v>
       </c>
       <c r="E17" s="3">
-        <v>715800</v>
+        <v>347800</v>
       </c>
       <c r="F17" s="3">
-        <v>372200</v>
+        <v>281500</v>
       </c>
       <c r="G17" s="3">
-        <v>311600</v>
+        <v>693400</v>
       </c>
       <c r="H17" s="3">
-        <v>1026500</v>
+        <v>360600</v>
       </c>
       <c r="I17" s="3">
+        <v>301800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>994400</v>
+      </c>
+      <c r="K17" s="3">
         <v>333800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>320100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>419700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>407800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>474900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>264200</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>182500</v>
+        <v>100700</v>
       </c>
       <c r="E18" s="3">
-        <v>-259600</v>
+        <v>134900</v>
       </c>
       <c r="F18" s="3">
-        <v>297400</v>
+        <v>176800</v>
       </c>
       <c r="G18" s="3">
-        <v>240800</v>
+        <v>-251500</v>
       </c>
       <c r="H18" s="3">
-        <v>357500</v>
+        <v>288100</v>
       </c>
       <c r="I18" s="3">
+        <v>233200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>346300</v>
+      </c>
+      <c r="K18" s="3">
         <v>89800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>127700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>264100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>184300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>88900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>299400</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,198 +1176,230 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-900</v>
-      </c>
       <c r="G20" s="3">
-        <v>-6900</v>
+        <v>-9200</v>
       </c>
       <c r="H20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>6900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>180700</v>
+        <v>146500</v>
       </c>
       <c r="E21" s="3">
-        <v>-269800</v>
+        <v>121900</v>
       </c>
       <c r="F21" s="3">
-        <v>332200</v>
+        <v>175000</v>
       </c>
       <c r="G21" s="3">
-        <v>237100</v>
+        <v>-261400</v>
       </c>
       <c r="H21" s="3">
-        <v>392300</v>
+        <v>321800</v>
       </c>
       <c r="I21" s="3">
+        <v>229700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>380100</v>
+      </c>
+      <c r="K21" s="3">
         <v>93700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>165400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>266900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>183000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>93700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>347100</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12200</v>
+        <v>14600</v>
       </c>
       <c r="E22" s="3">
-        <v>11600</v>
+        <v>11100</v>
       </c>
       <c r="F22" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="G22" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H22" s="3">
         <v>11900</v>
       </c>
-      <c r="H22" s="3">
-        <v>36100</v>
-      </c>
       <c r="I22" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K22" s="3">
         <v>12300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>12000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>13200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>14000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>14700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>170000</v>
+        <v>100800</v>
       </c>
       <c r="E23" s="3">
-        <v>-280800</v>
+        <v>110600</v>
       </c>
       <c r="F23" s="3">
-        <v>284300</v>
+        <v>164700</v>
       </c>
       <c r="G23" s="3">
-        <v>222000</v>
+        <v>-272000</v>
       </c>
       <c r="H23" s="3">
-        <v>319600</v>
+        <v>275400</v>
       </c>
       <c r="I23" s="3">
+        <v>215100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>309700</v>
+      </c>
+      <c r="K23" s="3">
         <v>79300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>117300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>252600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>168900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>81200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7600</v>
+        <v>22000</v>
       </c>
       <c r="E24" s="3">
-        <v>-80100</v>
+        <v>24700</v>
       </c>
       <c r="F24" s="3">
-        <v>77000</v>
+        <v>7400</v>
       </c>
       <c r="G24" s="3">
-        <v>57400</v>
+        <v>-77600</v>
       </c>
       <c r="H24" s="3">
-        <v>76900</v>
+        <v>74600</v>
       </c>
       <c r="I24" s="3">
+        <v>55700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>74500</v>
+      </c>
+      <c r="K24" s="3">
         <v>17500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>27500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>30900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>41700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>30400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>162400</v>
+        <v>78800</v>
       </c>
       <c r="E26" s="3">
-        <v>-200700</v>
+        <v>85900</v>
       </c>
       <c r="F26" s="3">
-        <v>207300</v>
+        <v>157300</v>
       </c>
       <c r="G26" s="3">
-        <v>164500</v>
+        <v>-194400</v>
       </c>
       <c r="H26" s="3">
-        <v>242800</v>
+        <v>200900</v>
       </c>
       <c r="I26" s="3">
+        <v>159400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>235200</v>
+      </c>
+      <c r="K26" s="3">
         <v>61800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>89800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>221700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>127300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>50700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>158600</v>
+        <v>77400</v>
       </c>
       <c r="E27" s="3">
-        <v>-198500</v>
+        <v>83600</v>
       </c>
       <c r="F27" s="3">
-        <v>205000</v>
+        <v>153700</v>
       </c>
       <c r="G27" s="3">
-        <v>160500</v>
+        <v>-192300</v>
       </c>
       <c r="H27" s="3">
-        <v>235100</v>
+        <v>198600</v>
       </c>
       <c r="I27" s="3">
+        <v>155500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>227700</v>
+      </c>
+      <c r="K27" s="3">
         <v>58900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>87500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>218400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>124800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>48300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>223700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1568,14 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>9500</v>
-      </c>
-      <c r="F32" s="3">
-        <v>900</v>
-      </c>
       <c r="G32" s="3">
-        <v>6900</v>
+        <v>9200</v>
       </c>
       <c r="H32" s="3">
+        <v>800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J32" s="3">
         <v>1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-6900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>158600</v>
+        <v>77400</v>
       </c>
       <c r="E33" s="3">
-        <v>-198500</v>
+        <v>83600</v>
       </c>
       <c r="F33" s="3">
-        <v>205000</v>
+        <v>153700</v>
       </c>
       <c r="G33" s="3">
-        <v>160500</v>
+        <v>-192300</v>
       </c>
       <c r="H33" s="3">
-        <v>235100</v>
+        <v>198600</v>
       </c>
       <c r="I33" s="3">
+        <v>155500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>227700</v>
+      </c>
+      <c r="K33" s="3">
         <v>58900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>87500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>218400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>124800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>48300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>223700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>158600</v>
+        <v>77400</v>
       </c>
       <c r="E35" s="3">
-        <v>-198500</v>
+        <v>83600</v>
       </c>
       <c r="F35" s="3">
-        <v>205000</v>
+        <v>153700</v>
       </c>
       <c r="G35" s="3">
-        <v>160500</v>
+        <v>-192300</v>
       </c>
       <c r="H35" s="3">
-        <v>235100</v>
+        <v>198600</v>
       </c>
       <c r="I35" s="3">
+        <v>155500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>227700</v>
+      </c>
+      <c r="K35" s="3">
         <v>58900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>87500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>218400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>124800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>48300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>223700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,350 +1965,406 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6400</v>
+        <v>3900</v>
       </c>
       <c r="E41" s="3">
-        <v>18000</v>
+        <v>11600</v>
       </c>
       <c r="F41" s="3">
-        <v>54300</v>
+        <v>6200</v>
       </c>
       <c r="G41" s="3">
-        <v>187200</v>
+        <v>17400</v>
       </c>
       <c r="H41" s="3">
-        <v>195100</v>
+        <v>52600</v>
       </c>
       <c r="I41" s="3">
+        <v>181300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>189000</v>
+      </c>
+      <c r="K41" s="3">
         <v>17300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>177300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>301400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>144600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>161200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5600</v>
+        <v>8200</v>
       </c>
       <c r="E42" s="3">
-        <v>7200</v>
+        <v>5300</v>
       </c>
       <c r="F42" s="3">
-        <v>125100</v>
+        <v>5400</v>
       </c>
       <c r="G42" s="3">
-        <v>7900</v>
+        <v>7000</v>
       </c>
       <c r="H42" s="3">
-        <v>30200</v>
+        <v>121200</v>
       </c>
       <c r="I42" s="3">
+        <v>7700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K42" s="3">
         <v>8300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>178600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>9600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>20300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>7500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>166900</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>850400</v>
+        <v>642100</v>
       </c>
       <c r="E43" s="3">
-        <v>773700</v>
+        <v>677900</v>
       </c>
       <c r="F43" s="3">
-        <v>714300</v>
+        <v>823800</v>
       </c>
       <c r="G43" s="3">
-        <v>546900</v>
+        <v>749600</v>
       </c>
       <c r="H43" s="3">
-        <v>375300</v>
+        <v>692000</v>
       </c>
       <c r="I43" s="3">
+        <v>529900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>363600</v>
+      </c>
+      <c r="K43" s="3">
         <v>383300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>374000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>561800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>512200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>525600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>521500</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>40800</v>
+        <v>44400</v>
       </c>
       <c r="E44" s="3">
-        <v>41500</v>
+        <v>36800</v>
       </c>
       <c r="F44" s="3">
-        <v>55900</v>
+        <v>39600</v>
       </c>
       <c r="G44" s="3">
-        <v>56000</v>
+        <v>40200</v>
       </c>
       <c r="H44" s="3">
-        <v>35200</v>
+        <v>54100</v>
       </c>
       <c r="I44" s="3">
+        <v>54300</v>
+      </c>
+      <c r="J44" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K44" s="3">
         <v>38500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>43200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>46700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>41700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>43200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>55700</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>57600</v>
+        <v>14200</v>
       </c>
       <c r="E45" s="3">
-        <v>61400</v>
+        <v>1300</v>
       </c>
       <c r="F45" s="3">
-        <v>57700</v>
+        <v>55800</v>
       </c>
       <c r="G45" s="3">
-        <v>62700</v>
+        <v>59500</v>
       </c>
       <c r="H45" s="3">
-        <v>12500</v>
+        <v>55900</v>
       </c>
       <c r="I45" s="3">
+        <v>60800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K45" s="3">
         <v>17300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>43200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>54900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>12900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>14900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>960800</v>
+        <v>712800</v>
       </c>
       <c r="E46" s="3">
-        <v>901700</v>
+        <v>732900</v>
       </c>
       <c r="F46" s="3">
-        <v>1007300</v>
+        <v>930800</v>
       </c>
       <c r="G46" s="3">
-        <v>860800</v>
+        <v>873500</v>
       </c>
       <c r="H46" s="3">
-        <v>648300</v>
+        <v>975800</v>
       </c>
       <c r="I46" s="3">
+        <v>833900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>628000</v>
+      </c>
+      <c r="K46" s="3">
         <v>464600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>816300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>968100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>731800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>599400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>924300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14600</v>
+        <v>329100</v>
       </c>
       <c r="E47" s="3">
-        <v>14800</v>
+        <v>215100</v>
       </c>
       <c r="F47" s="3">
-        <v>21000</v>
+        <v>14200</v>
       </c>
       <c r="G47" s="3">
-        <v>20900</v>
+        <v>14400</v>
       </c>
       <c r="H47" s="3">
-        <v>22400</v>
+        <v>20400</v>
       </c>
       <c r="I47" s="3">
+        <v>20300</v>
+      </c>
+      <c r="J47" s="3">
+        <v>21700</v>
+      </c>
+      <c r="K47" s="3">
         <v>30100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>21400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>34000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>31800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>33200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3482300</v>
+        <v>3407400</v>
       </c>
       <c r="E48" s="3">
-        <v>3463500</v>
+        <v>3407100</v>
       </c>
       <c r="F48" s="3">
-        <v>3741600</v>
+        <v>3373500</v>
       </c>
       <c r="G48" s="3">
-        <v>3736400</v>
+        <v>3355200</v>
       </c>
       <c r="H48" s="3">
-        <v>3646200</v>
+        <v>3624700</v>
       </c>
       <c r="I48" s="3">
+        <v>3619700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3532300</v>
+      </c>
+      <c r="K48" s="3">
         <v>3623400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3568100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4098700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4060100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4014800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4004200</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>65000</v>
+        <v>70000</v>
       </c>
       <c r="E49" s="3">
-        <v>63100</v>
+        <v>68500</v>
       </c>
       <c r="F49" s="3">
-        <v>63800</v>
+        <v>63000</v>
       </c>
       <c r="G49" s="3">
-        <v>62400</v>
+        <v>61100</v>
       </c>
       <c r="H49" s="3">
-        <v>58900</v>
+        <v>61800</v>
       </c>
       <c r="I49" s="3">
+        <v>60500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K49" s="3">
         <v>54500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>54400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>63900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>62600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>63400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>64300</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28400</v>
+        <v>24600</v>
       </c>
       <c r="E52" s="3">
-        <v>30500</v>
+        <v>24400</v>
       </c>
       <c r="F52" s="3">
-        <v>20500</v>
+        <v>27500</v>
       </c>
       <c r="G52" s="3">
-        <v>16100</v>
+        <v>29600</v>
       </c>
       <c r="H52" s="3">
-        <v>64500</v>
+        <v>19800</v>
       </c>
       <c r="I52" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>62500</v>
+      </c>
+      <c r="K52" s="3">
         <v>58800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>51900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>64200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>94200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>89100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4551200</v>
+        <v>4543900</v>
       </c>
       <c r="E54" s="3">
-        <v>4473700</v>
+        <v>4448100</v>
       </c>
       <c r="F54" s="3">
-        <v>4854200</v>
+        <v>4409000</v>
       </c>
       <c r="G54" s="3">
-        <v>4696600</v>
+        <v>4333900</v>
       </c>
       <c r="H54" s="3">
-        <v>4440200</v>
+        <v>4702500</v>
       </c>
       <c r="I54" s="3">
+        <v>4549800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>4301400</v>
+      </c>
+      <c r="K54" s="3">
         <v>4231500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4512100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5225100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>4980600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>4800000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5114900</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,236 +2617,274 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>226200</v>
+        <v>135100</v>
       </c>
       <c r="E57" s="3">
-        <v>289400</v>
+        <v>123200</v>
       </c>
       <c r="F57" s="3">
-        <v>160200</v>
+        <v>219100</v>
       </c>
       <c r="G57" s="3">
-        <v>136200</v>
+        <v>280300</v>
       </c>
       <c r="H57" s="3">
-        <v>55300</v>
+        <v>155200</v>
       </c>
       <c r="I57" s="3">
+        <v>132000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>53600</v>
+      </c>
+      <c r="K57" s="3">
         <v>53500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>79200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>138400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>146100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>133300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>132300</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>61400</v>
+        <v>62700</v>
       </c>
       <c r="E58" s="3">
-        <v>56700</v>
+        <v>57100</v>
       </c>
       <c r="F58" s="3">
-        <v>59900</v>
+        <v>59400</v>
       </c>
       <c r="G58" s="3">
-        <v>56300</v>
+        <v>54900</v>
       </c>
       <c r="H58" s="3">
-        <v>42900</v>
+        <v>58000</v>
       </c>
       <c r="I58" s="3">
+        <v>54500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K58" s="3">
         <v>38700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>25700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>25400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>30000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>26300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>358200</v>
+        <v>459700</v>
       </c>
       <c r="E59" s="3">
-        <v>321000</v>
+        <v>425000</v>
       </c>
       <c r="F59" s="3">
-        <v>430200</v>
+        <v>347000</v>
       </c>
       <c r="G59" s="3">
-        <v>567700</v>
+        <v>311000</v>
       </c>
       <c r="H59" s="3">
-        <v>380900</v>
+        <v>416800</v>
       </c>
       <c r="I59" s="3">
+        <v>550000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>369000</v>
+      </c>
+      <c r="K59" s="3">
         <v>295900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>464200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>652700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>387700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>346800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>572300</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>645700</v>
+        <v>657500</v>
       </c>
       <c r="E60" s="3">
-        <v>667100</v>
+        <v>605300</v>
       </c>
       <c r="F60" s="3">
-        <v>650400</v>
+        <v>625500</v>
       </c>
       <c r="G60" s="3">
-        <v>760200</v>
+        <v>646300</v>
       </c>
       <c r="H60" s="3">
-        <v>479100</v>
+        <v>630000</v>
       </c>
       <c r="I60" s="3">
+        <v>736400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>464100</v>
+      </c>
+      <c r="K60" s="3">
         <v>388000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>569200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>798700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>563700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>506400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>735200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1037800</v>
+        <v>1103500</v>
       </c>
       <c r="E61" s="3">
-        <v>990500</v>
+        <v>1007400</v>
       </c>
       <c r="F61" s="3">
-        <v>1006200</v>
+        <v>1005400</v>
       </c>
       <c r="G61" s="3">
-        <v>1020200</v>
+        <v>959500</v>
       </c>
       <c r="H61" s="3">
-        <v>1005100</v>
+        <v>974700</v>
       </c>
       <c r="I61" s="3">
+        <v>988300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>973700</v>
+      </c>
+      <c r="K61" s="3">
         <v>993800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>965800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1118600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1145400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1174300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>323400</v>
+        <v>398500</v>
       </c>
       <c r="E62" s="3">
-        <v>325400</v>
+        <v>387800</v>
       </c>
       <c r="F62" s="3">
-        <v>397900</v>
+        <v>313300</v>
       </c>
       <c r="G62" s="3">
-        <v>359500</v>
+        <v>315200</v>
       </c>
       <c r="H62" s="3">
-        <v>372200</v>
+        <v>385500</v>
       </c>
       <c r="I62" s="3">
+        <v>348200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>360600</v>
+      </c>
+      <c r="K62" s="3">
         <v>352800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>326400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>383900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>427900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>449000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>444100</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2019500</v>
+        <v>2173400</v>
       </c>
       <c r="E66" s="3">
-        <v>2011700</v>
+        <v>2013000</v>
       </c>
       <c r="F66" s="3">
-        <v>2090500</v>
+        <v>1956400</v>
       </c>
       <c r="G66" s="3">
-        <v>2174300</v>
+        <v>1948800</v>
       </c>
       <c r="H66" s="3">
-        <v>1889300</v>
+        <v>2025100</v>
       </c>
       <c r="I66" s="3">
+        <v>2106400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1830300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1770200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1898800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2341600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2178400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2170600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2398800</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1942100</v>
+        <v>1968400</v>
       </c>
       <c r="E72" s="3">
-        <v>1784100</v>
+        <v>1891000</v>
       </c>
       <c r="F72" s="3">
-        <v>2099100</v>
+        <v>1881400</v>
       </c>
       <c r="G72" s="3">
-        <v>1892600</v>
+        <v>1728300</v>
       </c>
       <c r="H72" s="3">
-        <v>1850100</v>
+        <v>2033500</v>
       </c>
       <c r="I72" s="3">
+        <v>1833400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1792200</v>
+      </c>
+      <c r="K72" s="3">
         <v>1756900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1831900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>2003500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1974000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1848900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1939500</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2531700</v>
+        <v>2370500</v>
       </c>
       <c r="E76" s="3">
-        <v>2462000</v>
+        <v>2435100</v>
       </c>
       <c r="F76" s="3">
-        <v>2763800</v>
+        <v>2452500</v>
       </c>
       <c r="G76" s="3">
-        <v>2522300</v>
+        <v>2385000</v>
       </c>
       <c r="H76" s="3">
-        <v>2550900</v>
+        <v>2677400</v>
       </c>
       <c r="I76" s="3">
+        <v>2443400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2471100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2461200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2613300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2883400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2802200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2629400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2716100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>158600</v>
+        <v>77400</v>
       </c>
       <c r="E81" s="3">
-        <v>-198500</v>
+        <v>83600</v>
       </c>
       <c r="F81" s="3">
-        <v>205000</v>
+        <v>153700</v>
       </c>
       <c r="G81" s="3">
-        <v>160500</v>
+        <v>-192300</v>
       </c>
       <c r="H81" s="3">
-        <v>235100</v>
+        <v>198600</v>
       </c>
       <c r="I81" s="3">
+        <v>155500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>227700</v>
+      </c>
+      <c r="K81" s="3">
         <v>58900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>87500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>218400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>124800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>48300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>223700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3626,10 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3269,8 +3666,14 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>162400</v>
+        <v>107100</v>
       </c>
       <c r="E89" s="3">
-        <v>153000</v>
+        <v>204800</v>
       </c>
       <c r="F89" s="3">
-        <v>201000</v>
+        <v>157400</v>
       </c>
       <c r="G89" s="3">
-        <v>108200</v>
+        <v>148200</v>
       </c>
       <c r="H89" s="3">
-        <v>487300</v>
+        <v>194700</v>
       </c>
       <c r="I89" s="3">
+        <v>104800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>472100</v>
+      </c>
+      <c r="K89" s="3">
         <v>79200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>204600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>265000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>247100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>21500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-11400</v>
+        <v>-59300</v>
       </c>
       <c r="E91" s="3">
-        <v>-87300</v>
+        <v>-55600</v>
       </c>
       <c r="F91" s="3">
-        <v>-90900</v>
+        <v>-11000</v>
       </c>
       <c r="G91" s="3">
-        <v>-59800</v>
+        <v>-84500</v>
       </c>
       <c r="H91" s="3">
-        <v>-224800</v>
+        <v>-88000</v>
       </c>
       <c r="I91" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-217700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-141800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-67300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-86500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-65900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-56700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-94900</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-155000</v>
+        <v>-76100</v>
       </c>
       <c r="E94" s="3">
-        <v>-157400</v>
+        <v>-108300</v>
       </c>
       <c r="F94" s="3">
-        <v>-78400</v>
+        <v>-150100</v>
       </c>
       <c r="G94" s="3">
-        <v>-83900</v>
+        <v>-152400</v>
       </c>
       <c r="H94" s="3">
-        <v>-208100</v>
+        <v>-75900</v>
       </c>
       <c r="I94" s="3">
+        <v>-81300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-201600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-136800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-54000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-87100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-67400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-50800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,46 +4146,54 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-100</v>
       </c>
-      <c r="E96" s="3">
-        <v>-125100</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-121100</v>
-      </c>
       <c r="G96" s="3">
-        <v>-3000</v>
+        <v>-121200</v>
       </c>
       <c r="H96" s="3">
-        <v>-303500</v>
+        <v>-117400</v>
       </c>
       <c r="I96" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-294000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-247600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-53700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-4000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-5800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-261400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4318,142 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-19900</v>
+        <v>-39300</v>
       </c>
       <c r="E100" s="3">
-        <v>-152700</v>
+        <v>-91600</v>
       </c>
       <c r="F100" s="3">
-        <v>-135200</v>
+        <v>-19300</v>
       </c>
       <c r="G100" s="3">
-        <v>-55800</v>
+        <v>-147900</v>
       </c>
       <c r="H100" s="3">
-        <v>-317900</v>
+        <v>-131000</v>
       </c>
       <c r="I100" s="3">
+        <v>-54100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-308000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-271200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-64100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-32600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-29300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-280800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-101000</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-3200</v>
-      </c>
       <c r="G101" s="3">
-        <v>1200</v>
+        <v>2800</v>
       </c>
       <c r="H101" s="3">
-        <v>-6600</v>
+        <v>-3100</v>
       </c>
       <c r="I101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-1300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-12800</v>
+        <v>-4800</v>
       </c>
       <c r="E102" s="3">
-        <v>-154200</v>
+        <v>5400</v>
       </c>
       <c r="F102" s="3">
-        <v>-15800</v>
+        <v>-12400</v>
       </c>
       <c r="G102" s="3">
-        <v>-30300</v>
+        <v>-149400</v>
       </c>
       <c r="H102" s="3">
-        <v>-45300</v>
+        <v>-15300</v>
       </c>
       <c r="I102" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-330400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>85400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>145500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>149100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-311900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>159200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOCCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOCCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>EOCCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>462900</v>
+        <v>479600</v>
       </c>
       <c r="E8" s="3">
-        <v>482700</v>
+        <v>474100</v>
       </c>
       <c r="F8" s="3">
-        <v>458300</v>
+        <v>494400</v>
       </c>
       <c r="G8" s="3">
-        <v>441900</v>
+        <v>469400</v>
       </c>
       <c r="H8" s="3">
-        <v>648700</v>
+        <v>452600</v>
       </c>
       <c r="I8" s="3">
-        <v>535100</v>
+        <v>664400</v>
       </c>
       <c r="J8" s="3">
+        <v>548000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1340700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>423500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>447900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>683800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>592100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>563900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>563600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>289000</v>
+        <v>302100</v>
       </c>
       <c r="E9" s="3">
-        <v>265500</v>
+        <v>296000</v>
       </c>
       <c r="F9" s="3">
-        <v>207200</v>
+        <v>272000</v>
       </c>
       <c r="G9" s="3">
-        <v>272000</v>
+        <v>212200</v>
       </c>
       <c r="H9" s="3">
-        <v>284800</v>
+        <v>278600</v>
       </c>
       <c r="I9" s="3">
-        <v>222000</v>
+        <v>291700</v>
       </c>
       <c r="J9" s="3">
+        <v>227300</v>
+      </c>
+      <c r="K9" s="3">
         <v>762900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>250300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>243200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>285300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>317400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>385800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>173900</v>
+        <v>177500</v>
       </c>
       <c r="E10" s="3">
-        <v>217200</v>
+        <v>178100</v>
       </c>
       <c r="F10" s="3">
-        <v>251100</v>
+        <v>222400</v>
       </c>
       <c r="G10" s="3">
-        <v>169900</v>
+        <v>257100</v>
       </c>
       <c r="H10" s="3">
-        <v>363900</v>
+        <v>174000</v>
       </c>
       <c r="I10" s="3">
-        <v>313100</v>
+        <v>372700</v>
       </c>
       <c r="J10" s="3">
+        <v>320700</v>
+      </c>
+      <c r="K10" s="3">
         <v>577900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>173300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>204600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>398400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>274700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>178000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>233900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +986,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>883700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>352800</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>344500</v>
-      </c>
-      <c r="H14" s="3">
-        <v>100</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-3600</v>
-      </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-3700</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-154200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>31100</v>
+        <v>32100</v>
       </c>
       <c r="E15" s="3">
-        <v>32600</v>
+        <v>31900</v>
       </c>
       <c r="F15" s="3">
-        <v>32300</v>
+        <v>33400</v>
       </c>
       <c r="G15" s="3">
-        <v>33800</v>
+        <v>33100</v>
       </c>
       <c r="H15" s="3">
-        <v>34500</v>
+        <v>34600</v>
       </c>
       <c r="I15" s="3">
-        <v>38600</v>
+        <v>35300</v>
       </c>
       <c r="J15" s="3">
+        <v>39600</v>
+      </c>
+      <c r="K15" s="3">
         <v>108900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>39500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>36100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>43500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>42300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>42200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>362100</v>
+        <v>1255600</v>
       </c>
       <c r="E17" s="3">
-        <v>347800</v>
+        <v>370900</v>
       </c>
       <c r="F17" s="3">
-        <v>281500</v>
+        <v>356200</v>
       </c>
       <c r="G17" s="3">
-        <v>693400</v>
+        <v>288300</v>
       </c>
       <c r="H17" s="3">
-        <v>360600</v>
+        <v>710200</v>
       </c>
       <c r="I17" s="3">
-        <v>301800</v>
+        <v>369300</v>
       </c>
       <c r="J17" s="3">
+        <v>309100</v>
+      </c>
+      <c r="K17" s="3">
         <v>994400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>333800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>320100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>419700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>407800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>474900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>264200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100700</v>
+        <v>-775900</v>
       </c>
       <c r="E18" s="3">
-        <v>134900</v>
+        <v>103200</v>
       </c>
       <c r="F18" s="3">
-        <v>176800</v>
+        <v>138200</v>
       </c>
       <c r="G18" s="3">
-        <v>-251500</v>
+        <v>181100</v>
       </c>
       <c r="H18" s="3">
-        <v>288100</v>
+        <v>-257600</v>
       </c>
       <c r="I18" s="3">
-        <v>233200</v>
+        <v>295100</v>
       </c>
       <c r="J18" s="3">
+        <v>238900</v>
+      </c>
+      <c r="K18" s="3">
         <v>346300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>89800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>127700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>264100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>184300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>88900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>299400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14700</v>
+        <v>-13600</v>
       </c>
       <c r="E20" s="3">
-        <v>-13300</v>
+        <v>15000</v>
       </c>
       <c r="F20" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>-9200</v>
-      </c>
       <c r="H20" s="3">
-        <v>-800</v>
+        <v>-9400</v>
       </c>
       <c r="I20" s="3">
-        <v>-6700</v>
+        <v>-900</v>
       </c>
       <c r="J20" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1600</v>
       </c>
       <c r="M20" s="3">
         <v>1600</v>
       </c>
       <c r="N20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>146500</v>
+        <v>-789300</v>
       </c>
       <c r="E21" s="3">
-        <v>121900</v>
+        <v>150100</v>
       </c>
       <c r="F21" s="3">
-        <v>175000</v>
+        <v>124800</v>
       </c>
       <c r="G21" s="3">
-        <v>-261400</v>
+        <v>179300</v>
       </c>
       <c r="H21" s="3">
-        <v>321800</v>
+        <v>-267700</v>
       </c>
       <c r="I21" s="3">
-        <v>229700</v>
+        <v>329600</v>
       </c>
       <c r="J21" s="3">
+        <v>235300</v>
+      </c>
+      <c r="K21" s="3">
         <v>380100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>93700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>165400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>266900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>183000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>93700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>347100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>14600</v>
+        <v>12300</v>
       </c>
       <c r="E22" s="3">
-        <v>11100</v>
+        <v>14900</v>
       </c>
       <c r="F22" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>12100</v>
+      </c>
+      <c r="H22" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>12100</v>
+      </c>
+      <c r="J22" s="3">
         <v>11800</v>
       </c>
-      <c r="G22" s="3">
-        <v>11300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>11500</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>12300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>12000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>14000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100800</v>
+        <v>-801900</v>
       </c>
       <c r="E23" s="3">
-        <v>110600</v>
+        <v>103300</v>
       </c>
       <c r="F23" s="3">
-        <v>164700</v>
+        <v>113200</v>
       </c>
       <c r="G23" s="3">
-        <v>-272000</v>
+        <v>168700</v>
       </c>
       <c r="H23" s="3">
-        <v>275400</v>
+        <v>-278600</v>
       </c>
       <c r="I23" s="3">
-        <v>215100</v>
+        <v>282100</v>
       </c>
       <c r="J23" s="3">
+        <v>220300</v>
+      </c>
+      <c r="K23" s="3">
         <v>309700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>79300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>117300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>252600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>168900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>81200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22000</v>
+        <v>-221600</v>
       </c>
       <c r="E24" s="3">
-        <v>24700</v>
+        <v>22500</v>
       </c>
       <c r="F24" s="3">
-        <v>7400</v>
+        <v>25300</v>
       </c>
       <c r="G24" s="3">
-        <v>-77600</v>
+        <v>7600</v>
       </c>
       <c r="H24" s="3">
-        <v>74600</v>
+        <v>-79500</v>
       </c>
       <c r="I24" s="3">
-        <v>55700</v>
+        <v>76400</v>
       </c>
       <c r="J24" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K24" s="3">
         <v>74500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>17500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>27500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>41700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>78800</v>
+        <v>-580200</v>
       </c>
       <c r="E26" s="3">
-        <v>85900</v>
+        <v>80700</v>
       </c>
       <c r="F26" s="3">
-        <v>157300</v>
+        <v>87900</v>
       </c>
       <c r="G26" s="3">
-        <v>-194400</v>
+        <v>161100</v>
       </c>
       <c r="H26" s="3">
-        <v>200900</v>
+        <v>-199100</v>
       </c>
       <c r="I26" s="3">
-        <v>159400</v>
+        <v>205700</v>
       </c>
       <c r="J26" s="3">
+        <v>163300</v>
+      </c>
+      <c r="K26" s="3">
         <v>235200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>61800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>89800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>221700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>127300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>50700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>77400</v>
+        <v>-582000</v>
       </c>
       <c r="E27" s="3">
-        <v>83600</v>
+        <v>79300</v>
       </c>
       <c r="F27" s="3">
-        <v>153700</v>
+        <v>85600</v>
       </c>
       <c r="G27" s="3">
-        <v>-192300</v>
+        <v>157400</v>
       </c>
       <c r="H27" s="3">
-        <v>198600</v>
+        <v>-197000</v>
       </c>
       <c r="I27" s="3">
-        <v>155500</v>
+        <v>203400</v>
       </c>
       <c r="J27" s="3">
+        <v>159200</v>
+      </c>
+      <c r="K27" s="3">
         <v>227700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>58900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>87500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>218400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>124800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>48300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>223700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14700</v>
+        <v>13600</v>
       </c>
       <c r="E32" s="3">
-        <v>13300</v>
+        <v>-15000</v>
       </c>
       <c r="F32" s="3">
+        <v>13600</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>9200</v>
-      </c>
       <c r="H32" s="3">
-        <v>800</v>
+        <v>9400</v>
       </c>
       <c r="I32" s="3">
-        <v>6700</v>
+        <v>900</v>
       </c>
       <c r="J32" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-1600</v>
       </c>
       <c r="M32" s="3">
         <v>-1600</v>
       </c>
       <c r="N32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>77400</v>
+        <v>-582000</v>
       </c>
       <c r="E33" s="3">
-        <v>83600</v>
+        <v>79300</v>
       </c>
       <c r="F33" s="3">
-        <v>153700</v>
+        <v>85600</v>
       </c>
       <c r="G33" s="3">
-        <v>-192300</v>
+        <v>157400</v>
       </c>
       <c r="H33" s="3">
-        <v>198600</v>
+        <v>-197000</v>
       </c>
       <c r="I33" s="3">
-        <v>155500</v>
+        <v>203400</v>
       </c>
       <c r="J33" s="3">
+        <v>159200</v>
+      </c>
+      <c r="K33" s="3">
         <v>227700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>58900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>87500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>218400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>124800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>48300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>223700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>77400</v>
+        <v>-582000</v>
       </c>
       <c r="E35" s="3">
-        <v>83600</v>
+        <v>79300</v>
       </c>
       <c r="F35" s="3">
-        <v>153700</v>
+        <v>85600</v>
       </c>
       <c r="G35" s="3">
-        <v>-192300</v>
+        <v>157400</v>
       </c>
       <c r="H35" s="3">
-        <v>198600</v>
+        <v>-197000</v>
       </c>
       <c r="I35" s="3">
-        <v>155500</v>
+        <v>203400</v>
       </c>
       <c r="J35" s="3">
+        <v>159200</v>
+      </c>
+      <c r="K35" s="3">
         <v>227700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>58900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>87500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>218400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>124800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>48300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>223700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2053,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3900</v>
+        <v>7800</v>
       </c>
       <c r="E41" s="3">
-        <v>11600</v>
+        <v>4000</v>
       </c>
       <c r="F41" s="3">
-        <v>6200</v>
+        <v>11900</v>
       </c>
       <c r="G41" s="3">
-        <v>17400</v>
+        <v>6400</v>
       </c>
       <c r="H41" s="3">
-        <v>52600</v>
+        <v>17800</v>
       </c>
       <c r="I41" s="3">
-        <v>181300</v>
+        <v>53900</v>
       </c>
       <c r="J41" s="3">
+        <v>185700</v>
+      </c>
+      <c r="K41" s="3">
         <v>189000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>17300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>177300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>301400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>144600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>161200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8200</v>
+        <v>200</v>
       </c>
       <c r="E42" s="3">
-        <v>5300</v>
+        <v>8400</v>
       </c>
       <c r="F42" s="3">
         <v>5400</v>
       </c>
       <c r="G42" s="3">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="H42" s="3">
-        <v>121200</v>
+        <v>7100</v>
       </c>
       <c r="I42" s="3">
-        <v>7700</v>
+        <v>124200</v>
       </c>
       <c r="J42" s="3">
+        <v>7800</v>
+      </c>
+      <c r="K42" s="3">
         <v>29300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>8300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>178600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>20300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>7500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>166900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>642100</v>
+        <v>342600</v>
       </c>
       <c r="E43" s="3">
-        <v>677900</v>
+        <v>657600</v>
       </c>
       <c r="F43" s="3">
-        <v>823800</v>
+        <v>694300</v>
       </c>
       <c r="G43" s="3">
-        <v>749600</v>
+        <v>843700</v>
       </c>
       <c r="H43" s="3">
-        <v>692000</v>
+        <v>767700</v>
       </c>
       <c r="I43" s="3">
-        <v>529900</v>
+        <v>708800</v>
       </c>
       <c r="J43" s="3">
+        <v>542700</v>
+      </c>
+      <c r="K43" s="3">
         <v>363600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>383300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>374000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>561800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>512200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>525600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>521500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>44400</v>
+        <v>15100</v>
       </c>
       <c r="E44" s="3">
-        <v>36800</v>
+        <v>45500</v>
       </c>
       <c r="F44" s="3">
-        <v>39600</v>
+        <v>37700</v>
       </c>
       <c r="G44" s="3">
-        <v>40200</v>
+        <v>40500</v>
       </c>
       <c r="H44" s="3">
-        <v>54100</v>
+        <v>41100</v>
       </c>
       <c r="I44" s="3">
-        <v>54300</v>
+        <v>55400</v>
       </c>
       <c r="J44" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K44" s="3">
         <v>34100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>38500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>43200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>46700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>41700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>43200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>55700</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14200</v>
+        <v>18400</v>
       </c>
       <c r="E45" s="3">
-        <v>1300</v>
+        <v>14500</v>
       </c>
       <c r="F45" s="3">
-        <v>55800</v>
+        <v>1400</v>
       </c>
       <c r="G45" s="3">
-        <v>59500</v>
+        <v>57200</v>
       </c>
       <c r="H45" s="3">
-        <v>55900</v>
+        <v>60900</v>
       </c>
       <c r="I45" s="3">
-        <v>60800</v>
+        <v>57200</v>
       </c>
       <c r="J45" s="3">
+        <v>62200</v>
+      </c>
+      <c r="K45" s="3">
         <v>12100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>43200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>54900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>712800</v>
+        <v>384200</v>
       </c>
       <c r="E46" s="3">
-        <v>732900</v>
+        <v>730000</v>
       </c>
       <c r="F46" s="3">
-        <v>930800</v>
+        <v>750700</v>
       </c>
       <c r="G46" s="3">
-        <v>873500</v>
+        <v>953300</v>
       </c>
       <c r="H46" s="3">
-        <v>975800</v>
+        <v>894700</v>
       </c>
       <c r="I46" s="3">
-        <v>833900</v>
+        <v>999500</v>
       </c>
       <c r="J46" s="3">
+        <v>854000</v>
+      </c>
+      <c r="K46" s="3">
         <v>628000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>464600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>816300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>968100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>731800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>599400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>924300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>329100</v>
+        <v>367200</v>
       </c>
       <c r="E47" s="3">
-        <v>215100</v>
+        <v>337100</v>
       </c>
       <c r="F47" s="3">
-        <v>14200</v>
+        <v>220400</v>
       </c>
       <c r="G47" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="H47" s="3">
-        <v>20400</v>
+        <v>14700</v>
       </c>
       <c r="I47" s="3">
-        <v>20300</v>
+        <v>20900</v>
       </c>
       <c r="J47" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K47" s="3">
         <v>21700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>30100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>21400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>34000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>31800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>33200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3407400</v>
+        <v>2661000</v>
       </c>
       <c r="E48" s="3">
-        <v>3407100</v>
+        <v>3489800</v>
       </c>
       <c r="F48" s="3">
-        <v>3373500</v>
+        <v>3489500</v>
       </c>
       <c r="G48" s="3">
-        <v>3355200</v>
+        <v>3455100</v>
       </c>
       <c r="H48" s="3">
-        <v>3624700</v>
+        <v>3436400</v>
       </c>
       <c r="I48" s="3">
-        <v>3619700</v>
+        <v>3712400</v>
       </c>
       <c r="J48" s="3">
+        <v>3707300</v>
+      </c>
+      <c r="K48" s="3">
         <v>3532300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3623400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3568100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4098700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4060100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4014800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4004200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>70000</v>
+        <v>71800</v>
       </c>
       <c r="E49" s="3">
-        <v>68500</v>
+        <v>71700</v>
       </c>
       <c r="F49" s="3">
-        <v>63000</v>
+        <v>70200</v>
       </c>
       <c r="G49" s="3">
-        <v>61100</v>
+        <v>64500</v>
       </c>
       <c r="H49" s="3">
-        <v>61800</v>
+        <v>62600</v>
       </c>
       <c r="I49" s="3">
-        <v>60500</v>
+        <v>63300</v>
       </c>
       <c r="J49" s="3">
+        <v>61900</v>
+      </c>
+      <c r="K49" s="3">
         <v>57000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>54500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>54400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>63900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>62600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>63400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>64300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24600</v>
+        <v>153100</v>
       </c>
       <c r="E52" s="3">
-        <v>24400</v>
+        <v>25200</v>
       </c>
       <c r="F52" s="3">
-        <v>27500</v>
+        <v>25000</v>
       </c>
       <c r="G52" s="3">
-        <v>29600</v>
+        <v>28200</v>
       </c>
       <c r="H52" s="3">
-        <v>19800</v>
+        <v>30300</v>
       </c>
       <c r="I52" s="3">
-        <v>15600</v>
+        <v>20300</v>
       </c>
       <c r="J52" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K52" s="3">
         <v>62500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>58800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>51900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>64200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>94200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>89100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4543900</v>
+        <v>3637200</v>
       </c>
       <c r="E54" s="3">
-        <v>4448100</v>
+        <v>4653800</v>
       </c>
       <c r="F54" s="3">
-        <v>4409000</v>
+        <v>4555700</v>
       </c>
       <c r="G54" s="3">
-        <v>4333900</v>
+        <v>4515600</v>
       </c>
       <c r="H54" s="3">
-        <v>4702500</v>
+        <v>4438700</v>
       </c>
       <c r="I54" s="3">
-        <v>4549800</v>
+        <v>4816300</v>
       </c>
       <c r="J54" s="3">
+        <v>4659900</v>
+      </c>
+      <c r="K54" s="3">
         <v>4301400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4231500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4512100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5225100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4980600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4800000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5114900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>142900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>138300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>126200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>224400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>287100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>159000</v>
+      </c>
+      <c r="J57" s="3">
         <v>135100</v>
       </c>
-      <c r="E57" s="3">
-        <v>123200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>219100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>280300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>155200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>132000</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>53600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>53500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>79200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>138400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>146100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>133300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>132300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>62700</v>
+        <v>60500</v>
       </c>
       <c r="E58" s="3">
-        <v>57100</v>
+        <v>64200</v>
       </c>
       <c r="F58" s="3">
+        <v>58500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>60900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>56200</v>
+      </c>
+      <c r="I58" s="3">
         <v>59400</v>
       </c>
-      <c r="G58" s="3">
-        <v>54900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>58000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>54500</v>
-      </c>
       <c r="J58" s="3">
+        <v>55800</v>
+      </c>
+      <c r="K58" s="3">
         <v>41600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>38700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>25700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>30000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>26300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>459700</v>
+        <v>276400</v>
       </c>
       <c r="E59" s="3">
-        <v>425000</v>
+        <v>470800</v>
       </c>
       <c r="F59" s="3">
-        <v>347000</v>
+        <v>435200</v>
       </c>
       <c r="G59" s="3">
-        <v>311000</v>
+        <v>355400</v>
       </c>
       <c r="H59" s="3">
-        <v>416800</v>
+        <v>318500</v>
       </c>
       <c r="I59" s="3">
-        <v>550000</v>
+        <v>426900</v>
       </c>
       <c r="J59" s="3">
+        <v>563300</v>
+      </c>
+      <c r="K59" s="3">
         <v>369000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>295900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>464200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>652700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>387700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>346800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>572300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>657500</v>
+        <v>479900</v>
       </c>
       <c r="E60" s="3">
-        <v>605300</v>
+        <v>673400</v>
       </c>
       <c r="F60" s="3">
-        <v>625500</v>
+        <v>620000</v>
       </c>
       <c r="G60" s="3">
-        <v>646300</v>
+        <v>640700</v>
       </c>
       <c r="H60" s="3">
-        <v>630000</v>
+        <v>661900</v>
       </c>
       <c r="I60" s="3">
-        <v>736400</v>
+        <v>645300</v>
       </c>
       <c r="J60" s="3">
+        <v>754200</v>
+      </c>
+      <c r="K60" s="3">
         <v>464100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>388000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>569200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>798700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>563700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>506400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>735200</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1103500</v>
+        <v>1082300</v>
       </c>
       <c r="E61" s="3">
-        <v>1007400</v>
+        <v>1130200</v>
       </c>
       <c r="F61" s="3">
-        <v>1005400</v>
+        <v>1031700</v>
       </c>
       <c r="G61" s="3">
-        <v>959500</v>
+        <v>1029700</v>
       </c>
       <c r="H61" s="3">
-        <v>974700</v>
+        <v>982700</v>
       </c>
       <c r="I61" s="3">
-        <v>988300</v>
+        <v>998300</v>
       </c>
       <c r="J61" s="3">
+        <v>1012200</v>
+      </c>
+      <c r="K61" s="3">
         <v>973700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>993800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>965800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1118600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1145400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1174300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>398500</v>
+        <v>372600</v>
       </c>
       <c r="E62" s="3">
-        <v>387800</v>
+        <v>408100</v>
       </c>
       <c r="F62" s="3">
-        <v>313300</v>
+        <v>397200</v>
       </c>
       <c r="G62" s="3">
-        <v>315200</v>
+        <v>320900</v>
       </c>
       <c r="H62" s="3">
-        <v>385500</v>
+        <v>322800</v>
       </c>
       <c r="I62" s="3">
-        <v>348200</v>
+        <v>394800</v>
       </c>
       <c r="J62" s="3">
+        <v>356700</v>
+      </c>
+      <c r="K62" s="3">
         <v>360600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>352800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>326400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>383900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>427900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>449000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>444100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2173400</v>
+        <v>1947800</v>
       </c>
       <c r="E66" s="3">
-        <v>2013000</v>
+        <v>2226000</v>
       </c>
       <c r="F66" s="3">
-        <v>1956400</v>
+        <v>2061700</v>
       </c>
       <c r="G66" s="3">
-        <v>1948800</v>
+        <v>2003700</v>
       </c>
       <c r="H66" s="3">
-        <v>2025100</v>
+        <v>1996000</v>
       </c>
       <c r="I66" s="3">
-        <v>2106400</v>
+        <v>2074100</v>
       </c>
       <c r="J66" s="3">
+        <v>2157400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1830300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1770200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1898800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2341600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2178400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2170600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2398800</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1968400</v>
+        <v>1206300</v>
       </c>
       <c r="E72" s="3">
-        <v>1891000</v>
+        <v>2016000</v>
       </c>
       <c r="F72" s="3">
-        <v>1881400</v>
+        <v>1936700</v>
       </c>
       <c r="G72" s="3">
-        <v>1728300</v>
+        <v>1926900</v>
       </c>
       <c r="H72" s="3">
-        <v>2033500</v>
+        <v>1770100</v>
       </c>
       <c r="I72" s="3">
-        <v>1833400</v>
+        <v>2082700</v>
       </c>
       <c r="J72" s="3">
+        <v>1877800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1792200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1756900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1831900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2003500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1974000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1848900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1939500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2370500</v>
+        <v>1689400</v>
       </c>
       <c r="E76" s="3">
-        <v>2435100</v>
+        <v>2427800</v>
       </c>
       <c r="F76" s="3">
-        <v>2452500</v>
+        <v>2494000</v>
       </c>
       <c r="G76" s="3">
-        <v>2385000</v>
+        <v>2511900</v>
       </c>
       <c r="H76" s="3">
-        <v>2677400</v>
+        <v>2442700</v>
       </c>
       <c r="I76" s="3">
-        <v>2443400</v>
+        <v>2742200</v>
       </c>
       <c r="J76" s="3">
+        <v>2502600</v>
+      </c>
+      <c r="K76" s="3">
         <v>2471100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2461200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2613300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2883400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2802200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2629400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2716100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>77400</v>
+        <v>-582000</v>
       </c>
       <c r="E81" s="3">
-        <v>83600</v>
+        <v>79300</v>
       </c>
       <c r="F81" s="3">
-        <v>153700</v>
+        <v>85600</v>
       </c>
       <c r="G81" s="3">
-        <v>-192300</v>
+        <v>157400</v>
       </c>
       <c r="H81" s="3">
-        <v>198600</v>
+        <v>-197000</v>
       </c>
       <c r="I81" s="3">
-        <v>155500</v>
+        <v>203400</v>
       </c>
       <c r="J81" s="3">
+        <v>159200</v>
+      </c>
+      <c r="K81" s="3">
         <v>227700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>58900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>87500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>218400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>124800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>48300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>223700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>107100</v>
+        <v>47500</v>
       </c>
       <c r="E89" s="3">
-        <v>204800</v>
+        <v>109700</v>
       </c>
       <c r="F89" s="3">
-        <v>157400</v>
+        <v>209800</v>
       </c>
       <c r="G89" s="3">
-        <v>148200</v>
+        <v>161200</v>
       </c>
       <c r="H89" s="3">
-        <v>194700</v>
+        <v>151800</v>
       </c>
       <c r="I89" s="3">
-        <v>104800</v>
+        <v>199400</v>
       </c>
       <c r="J89" s="3">
+        <v>107400</v>
+      </c>
+      <c r="K89" s="3">
         <v>472100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>79200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>204600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>265000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>247100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-86600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-90200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-59300</v>
       </c>
-      <c r="E91" s="3">
-        <v>-55600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-11000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-84500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-88000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-57900</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-217700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-141800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-67300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-86500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-65900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-56700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-94900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-76100</v>
+        <v>205700</v>
       </c>
       <c r="E94" s="3">
-        <v>-108300</v>
+        <v>-78000</v>
       </c>
       <c r="F94" s="3">
-        <v>-150100</v>
+        <v>-110900</v>
       </c>
       <c r="G94" s="3">
-        <v>-152400</v>
+        <v>-153800</v>
       </c>
       <c r="H94" s="3">
-        <v>-75900</v>
+        <v>-156100</v>
       </c>
       <c r="I94" s="3">
-        <v>-81300</v>
+        <v>-77800</v>
       </c>
       <c r="J94" s="3">
+        <v>-83200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-201600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-136800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-54000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-87100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-67400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-50800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-26000</v>
+        <v>-280100</v>
       </c>
       <c r="E96" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-100</v>
       </c>
-      <c r="G96" s="3">
-        <v>-121200</v>
-      </c>
       <c r="H96" s="3">
-        <v>-117400</v>
+        <v>-124100</v>
       </c>
       <c r="I96" s="3">
+        <v>-120200</v>
+      </c>
+      <c r="J96" s="3">
         <v>-2900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-294000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-247600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-53700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-5800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-261400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-39300</v>
+        <v>-256700</v>
       </c>
       <c r="E100" s="3">
-        <v>-91600</v>
+        <v>-40200</v>
       </c>
       <c r="F100" s="3">
-        <v>-19300</v>
+        <v>-93800</v>
       </c>
       <c r="G100" s="3">
-        <v>-147900</v>
+        <v>-19800</v>
       </c>
       <c r="H100" s="3">
-        <v>-131000</v>
+        <v>-151500</v>
       </c>
       <c r="I100" s="3">
-        <v>-54100</v>
+        <v>-134200</v>
       </c>
       <c r="J100" s="3">
+        <v>-55400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-308000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-271200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-64100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-32600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-29300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-280800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-101000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3500</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
-        <v>2800</v>
-      </c>
       <c r="H101" s="3">
-        <v>-3100</v>
+        <v>2900</v>
       </c>
       <c r="I101" s="3">
-        <v>1100</v>
+        <v>-3200</v>
       </c>
       <c r="J101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4800</v>
+        <v>-4300</v>
       </c>
       <c r="E102" s="3">
-        <v>5400</v>
+        <v>-4900</v>
       </c>
       <c r="F102" s="3">
-        <v>-12400</v>
+        <v>5500</v>
       </c>
       <c r="G102" s="3">
-        <v>-149400</v>
+        <v>-12700</v>
       </c>
       <c r="H102" s="3">
-        <v>-15300</v>
+        <v>-153000</v>
       </c>
       <c r="I102" s="3">
-        <v>-29400</v>
+        <v>-15700</v>
       </c>
       <c r="J102" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-43800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-330400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>85400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>145500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>149100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-311900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>159200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EOCCY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EOCCY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>EOCCY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>479600</v>
+        <v>481600</v>
       </c>
       <c r="E8" s="3">
-        <v>474100</v>
+        <v>491000</v>
       </c>
       <c r="F8" s="3">
-        <v>494400</v>
+        <v>485300</v>
       </c>
       <c r="G8" s="3">
-        <v>469400</v>
+        <v>506000</v>
       </c>
       <c r="H8" s="3">
-        <v>452600</v>
+        <v>480500</v>
       </c>
       <c r="I8" s="3">
-        <v>664400</v>
+        <v>463300</v>
       </c>
       <c r="J8" s="3">
+        <v>680100</v>
+      </c>
+      <c r="K8" s="3">
         <v>548000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1340700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>423500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>447900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>683800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>592100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>563900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>563600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>302100</v>
+        <v>232100</v>
       </c>
       <c r="E9" s="3">
-        <v>296000</v>
+        <v>309300</v>
       </c>
       <c r="F9" s="3">
-        <v>272000</v>
+        <v>303000</v>
       </c>
       <c r="G9" s="3">
-        <v>212200</v>
+        <v>278400</v>
       </c>
       <c r="H9" s="3">
-        <v>278600</v>
+        <v>217300</v>
       </c>
       <c r="I9" s="3">
-        <v>291700</v>
+        <v>285100</v>
       </c>
       <c r="J9" s="3">
+        <v>298600</v>
+      </c>
+      <c r="K9" s="3">
         <v>227300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>762900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>250300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>243200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>285300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>317400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>385800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>329700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>177500</v>
+        <v>249500</v>
       </c>
       <c r="E10" s="3">
+        <v>181700</v>
+      </c>
+      <c r="F10" s="3">
+        <v>182300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>227700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>263200</v>
+      </c>
+      <c r="I10" s="3">
         <v>178100</v>
       </c>
-      <c r="F10" s="3">
-        <v>222400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>257100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>174000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>372700</v>
-      </c>
       <c r="J10" s="3">
+        <v>381500</v>
+      </c>
+      <c r="K10" s="3">
         <v>320700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>577900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>173300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>204600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>398400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>274700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>178000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>233900</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,102 +1006,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>883700</v>
-      </c>
-      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>904600</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>2700</v>
-      </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="H14" s="3">
-        <v>352800</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>361100</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-3700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-154200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>32100</v>
+        <v>22800</v>
       </c>
       <c r="E15" s="3">
-        <v>31900</v>
+        <v>32800</v>
       </c>
       <c r="F15" s="3">
-        <v>33400</v>
+        <v>32600</v>
       </c>
       <c r="G15" s="3">
-        <v>33100</v>
+        <v>34200</v>
       </c>
       <c r="H15" s="3">
-        <v>34600</v>
+        <v>33900</v>
       </c>
       <c r="I15" s="3">
-        <v>35300</v>
+        <v>35500</v>
       </c>
       <c r="J15" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K15" s="3">
         <v>39600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>108900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>39500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>36100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>43500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>42300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>42200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>44400</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1255600</v>
+        <v>300800</v>
       </c>
       <c r="E17" s="3">
-        <v>370900</v>
+        <v>1285200</v>
       </c>
       <c r="F17" s="3">
-        <v>356200</v>
+        <v>379700</v>
       </c>
       <c r="G17" s="3">
-        <v>288300</v>
+        <v>364600</v>
       </c>
       <c r="H17" s="3">
-        <v>710200</v>
+        <v>295100</v>
       </c>
       <c r="I17" s="3">
-        <v>369300</v>
+        <v>727000</v>
       </c>
       <c r="J17" s="3">
+        <v>378100</v>
+      </c>
+      <c r="K17" s="3">
         <v>309100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>994400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>333800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>320100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>419700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>407800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>474900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>264200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-775900</v>
+        <v>180800</v>
       </c>
       <c r="E18" s="3">
-        <v>103200</v>
+        <v>-794300</v>
       </c>
       <c r="F18" s="3">
-        <v>138200</v>
+        <v>105600</v>
       </c>
       <c r="G18" s="3">
-        <v>181100</v>
+        <v>141500</v>
       </c>
       <c r="H18" s="3">
-        <v>-257600</v>
+        <v>185400</v>
       </c>
       <c r="I18" s="3">
-        <v>295100</v>
+        <v>-263700</v>
       </c>
       <c r="J18" s="3">
+        <v>302000</v>
+      </c>
+      <c r="K18" s="3">
         <v>238900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>346300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>89800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>127700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>264100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>184300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>88900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>299400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13600</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>15000</v>
+        <v>-13900</v>
       </c>
       <c r="F20" s="3">
-        <v>-13600</v>
+        <v>15400</v>
       </c>
       <c r="G20" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>-9400</v>
-      </c>
       <c r="I20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1600</v>
       </c>
       <c r="N20" s="3">
         <v>1600</v>
       </c>
       <c r="O20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-789300</v>
+        <v>170900</v>
       </c>
       <c r="E21" s="3">
-        <v>150100</v>
+        <v>-808000</v>
       </c>
       <c r="F21" s="3">
-        <v>124800</v>
-      </c>
-      <c r="G21" s="3">
-        <v>179300</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-267700</v>
+        <v>153600</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I21" s="3">
-        <v>329600</v>
+        <v>-274000</v>
       </c>
       <c r="J21" s="3">
+        <v>337300</v>
+      </c>
+      <c r="K21" s="3">
         <v>235300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>380100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>93700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>165400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>266900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>183000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>93700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>347100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F22" s="3">
+        <v>15300</v>
+      </c>
+      <c r="G22" s="3">
+        <v>11600</v>
+      </c>
+      <c r="H22" s="3">
+        <v>12400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>12400</v>
+      </c>
+      <c r="K22" s="3">
+        <v>11800</v>
+      </c>
+      <c r="L22" s="3">
+        <v>34900</v>
+      </c>
+      <c r="M22" s="3">
         <v>12300</v>
       </c>
-      <c r="E22" s="3">
-        <v>14900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>11300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>12100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>11500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>12100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>11800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>34900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>12300</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>14000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-801900</v>
+        <v>170100</v>
       </c>
       <c r="E23" s="3">
-        <v>103300</v>
+        <v>-820800</v>
       </c>
       <c r="F23" s="3">
-        <v>113200</v>
+        <v>105700</v>
       </c>
       <c r="G23" s="3">
-        <v>168700</v>
+        <v>115900</v>
       </c>
       <c r="H23" s="3">
-        <v>-278600</v>
+        <v>172700</v>
       </c>
       <c r="I23" s="3">
-        <v>282100</v>
+        <v>-285100</v>
       </c>
       <c r="J23" s="3">
+        <v>288700</v>
+      </c>
+      <c r="K23" s="3">
         <v>220300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>309700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>79300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>117300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>252600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>168900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>81200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>287700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-221600</v>
+        <v>42600</v>
       </c>
       <c r="E24" s="3">
-        <v>22500</v>
+        <v>-226900</v>
       </c>
       <c r="F24" s="3">
-        <v>25300</v>
+        <v>23100</v>
       </c>
       <c r="G24" s="3">
-        <v>7600</v>
+        <v>25900</v>
       </c>
       <c r="H24" s="3">
-        <v>-79500</v>
+        <v>7800</v>
       </c>
       <c r="I24" s="3">
-        <v>76400</v>
+        <v>-81300</v>
       </c>
       <c r="J24" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K24" s="3">
         <v>57000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>74500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>17500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>41700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>30400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>61800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-580200</v>
+        <v>127500</v>
       </c>
       <c r="E26" s="3">
-        <v>80700</v>
+        <v>-593900</v>
       </c>
       <c r="F26" s="3">
-        <v>87900</v>
+        <v>82600</v>
       </c>
       <c r="G26" s="3">
-        <v>161100</v>
+        <v>90000</v>
       </c>
       <c r="H26" s="3">
-        <v>-199100</v>
+        <v>164900</v>
       </c>
       <c r="I26" s="3">
-        <v>205700</v>
+        <v>-203800</v>
       </c>
       <c r="J26" s="3">
+        <v>210600</v>
+      </c>
+      <c r="K26" s="3">
         <v>163300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>235200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>61800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>89800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>221700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>127300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>50700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>225800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-582000</v>
+        <v>125300</v>
       </c>
       <c r="E27" s="3">
-        <v>79300</v>
+        <v>-595700</v>
       </c>
       <c r="F27" s="3">
-        <v>85600</v>
+        <v>81100</v>
       </c>
       <c r="G27" s="3">
-        <v>157400</v>
+        <v>87600</v>
       </c>
       <c r="H27" s="3">
-        <v>-197000</v>
+        <v>161100</v>
       </c>
       <c r="I27" s="3">
-        <v>203400</v>
+        <v>-201600</v>
       </c>
       <c r="J27" s="3">
+        <v>208200</v>
+      </c>
+      <c r="K27" s="3">
         <v>159200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>227700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>58900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>87500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>218400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>124800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>48300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>223700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13600</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>-15000</v>
+        <v>13900</v>
       </c>
       <c r="F32" s="3">
-        <v>13600</v>
+        <v>-15400</v>
       </c>
       <c r="G32" s="3">
+        <v>13900</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>9400</v>
-      </c>
       <c r="I32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1600</v>
       </c>
       <c r="N32" s="3">
         <v>-1600</v>
       </c>
       <c r="O32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P32" s="3">
         <v>1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-582000</v>
+        <v>125300</v>
       </c>
       <c r="E33" s="3">
-        <v>79300</v>
+        <v>-595700</v>
       </c>
       <c r="F33" s="3">
-        <v>85600</v>
+        <v>81100</v>
       </c>
       <c r="G33" s="3">
-        <v>157400</v>
+        <v>87600</v>
       </c>
       <c r="H33" s="3">
-        <v>-197000</v>
+        <v>161100</v>
       </c>
       <c r="I33" s="3">
-        <v>203400</v>
+        <v>-201600</v>
       </c>
       <c r="J33" s="3">
+        <v>208200</v>
+      </c>
+      <c r="K33" s="3">
         <v>159200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>227700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>58900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>87500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>218400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>124800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>48300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>223700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-582000</v>
+        <v>125300</v>
       </c>
       <c r="E35" s="3">
-        <v>79300</v>
+        <v>-595700</v>
       </c>
       <c r="F35" s="3">
-        <v>85600</v>
+        <v>81100</v>
       </c>
       <c r="G35" s="3">
-        <v>157400</v>
+        <v>87600</v>
       </c>
       <c r="H35" s="3">
-        <v>-197000</v>
+        <v>161100</v>
       </c>
       <c r="I35" s="3">
-        <v>203400</v>
+        <v>-201600</v>
       </c>
       <c r="J35" s="3">
+        <v>208200</v>
+      </c>
+      <c r="K35" s="3">
         <v>159200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>227700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>58900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>87500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>218400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>124800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>48300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>223700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,149 +2140,159 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7800</v>
+        <v>5200</v>
       </c>
       <c r="E41" s="3">
-        <v>4000</v>
+        <v>5500</v>
       </c>
       <c r="F41" s="3">
-        <v>11900</v>
+        <v>4100</v>
       </c>
       <c r="G41" s="3">
-        <v>6400</v>
+        <v>12200</v>
       </c>
       <c r="H41" s="3">
-        <v>17800</v>
+        <v>6500</v>
       </c>
       <c r="I41" s="3">
-        <v>53900</v>
+        <v>18200</v>
       </c>
       <c r="J41" s="3">
+        <v>55200</v>
+      </c>
+      <c r="K41" s="3">
         <v>185700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>189000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>17300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>177300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>301400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>144600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>161200</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="E42" s="3">
-        <v>8400</v>
+        <v>2700</v>
       </c>
       <c r="F42" s="3">
-        <v>5400</v>
+        <v>8600</v>
       </c>
       <c r="G42" s="3">
         <v>5500</v>
       </c>
       <c r="H42" s="3">
-        <v>7100</v>
+        <v>5700</v>
       </c>
       <c r="I42" s="3">
-        <v>124200</v>
+        <v>7300</v>
       </c>
       <c r="J42" s="3">
+        <v>127100</v>
+      </c>
+      <c r="K42" s="3">
         <v>7800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>29300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>8300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>178600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>20300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>166900</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>342600</v>
+        <v>439900</v>
       </c>
       <c r="E43" s="3">
-        <v>657600</v>
+        <v>360300</v>
       </c>
       <c r="F43" s="3">
-        <v>694300</v>
+        <v>673100</v>
       </c>
       <c r="G43" s="3">
-        <v>843700</v>
+        <v>710700</v>
       </c>
       <c r="H43" s="3">
-        <v>767700</v>
+        <v>863600</v>
       </c>
       <c r="I43" s="3">
-        <v>708800</v>
+        <v>785800</v>
       </c>
       <c r="J43" s="3">
+        <v>725500</v>
+      </c>
+      <c r="K43" s="3">
         <v>542700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>363600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>383300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>374000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>561800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>512200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>525600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>521500</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2204,281 +2300,299 @@
         <v>15100</v>
       </c>
       <c r="E44" s="3">
-        <v>45500</v>
+        <v>15500</v>
       </c>
       <c r="F44" s="3">
-        <v>37700</v>
+        <v>46600</v>
       </c>
       <c r="G44" s="3">
-        <v>40500</v>
+        <v>38600</v>
       </c>
       <c r="H44" s="3">
-        <v>41100</v>
+        <v>41500</v>
       </c>
       <c r="I44" s="3">
-        <v>55400</v>
+        <v>42100</v>
       </c>
       <c r="J44" s="3">
+        <v>56700</v>
+      </c>
+      <c r="K44" s="3">
         <v>55600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>34100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>38500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>43200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>46700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>41700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>43200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>55700</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18400</v>
+        <v>3000</v>
       </c>
       <c r="E45" s="3">
-        <v>14500</v>
+        <v>9200</v>
       </c>
       <c r="F45" s="3">
+        <v>14800</v>
+      </c>
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
-        <v>57200</v>
-      </c>
       <c r="H45" s="3">
-        <v>60900</v>
+        <v>58500</v>
       </c>
       <c r="I45" s="3">
-        <v>57200</v>
+        <v>62300</v>
       </c>
       <c r="J45" s="3">
+        <v>58600</v>
+      </c>
+      <c r="K45" s="3">
         <v>62200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>43200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>54900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19100</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>384200</v>
+        <v>465300</v>
       </c>
       <c r="E46" s="3">
-        <v>730000</v>
+        <v>393300</v>
       </c>
       <c r="F46" s="3">
-        <v>750700</v>
+        <v>747300</v>
       </c>
       <c r="G46" s="3">
-        <v>953300</v>
+        <v>768400</v>
       </c>
       <c r="H46" s="3">
-        <v>894700</v>
+        <v>975800</v>
       </c>
       <c r="I46" s="3">
-        <v>999500</v>
+        <v>915800</v>
       </c>
       <c r="J46" s="3">
+        <v>1023100</v>
+      </c>
+      <c r="K46" s="3">
         <v>854000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>628000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>464600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>816300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>968100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>731800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>599400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>924300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>367200</v>
+        <v>398800</v>
       </c>
       <c r="E47" s="3">
-        <v>337100</v>
+        <v>371600</v>
       </c>
       <c r="F47" s="3">
-        <v>220400</v>
+        <v>345000</v>
       </c>
       <c r="G47" s="3">
-        <v>14500</v>
+        <v>225600</v>
       </c>
       <c r="H47" s="3">
-        <v>14700</v>
+        <v>14800</v>
       </c>
       <c r="I47" s="3">
-        <v>20900</v>
+        <v>15100</v>
       </c>
       <c r="J47" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K47" s="3">
         <v>20800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>21700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>30100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>21400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>34000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>31800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>33200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>35400</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2661000</v>
+        <v>2732800</v>
       </c>
       <c r="E48" s="3">
-        <v>3489800</v>
+        <v>2723800</v>
       </c>
       <c r="F48" s="3">
-        <v>3489500</v>
+        <v>3572300</v>
       </c>
       <c r="G48" s="3">
-        <v>3455100</v>
+        <v>3571900</v>
       </c>
       <c r="H48" s="3">
-        <v>3436400</v>
+        <v>3536700</v>
       </c>
       <c r="I48" s="3">
-        <v>3712400</v>
+        <v>3517600</v>
       </c>
       <c r="J48" s="3">
+        <v>3800100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3707300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3532300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3623400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3568100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4098700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4060100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4014800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4004200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>73500</v>
+      </c>
+      <c r="F49" s="3">
+        <v>73400</v>
+      </c>
+      <c r="G49" s="3">
         <v>71800</v>
       </c>
-      <c r="E49" s="3">
-        <v>71700</v>
-      </c>
-      <c r="F49" s="3">
-        <v>70200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>64500</v>
-      </c>
       <c r="H49" s="3">
+        <v>66000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>64100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>64800</v>
+      </c>
+      <c r="K49" s="3">
+        <v>61900</v>
+      </c>
+      <c r="L49" s="3">
+        <v>57000</v>
+      </c>
+      <c r="M49" s="3">
+        <v>54500</v>
+      </c>
+      <c r="N49" s="3">
+        <v>54400</v>
+      </c>
+      <c r="O49" s="3">
+        <v>63900</v>
+      </c>
+      <c r="P49" s="3">
         <v>62600</v>
       </c>
-      <c r="I49" s="3">
-        <v>63300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>61900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>57000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>54500</v>
-      </c>
-      <c r="M49" s="3">
-        <v>54400</v>
-      </c>
-      <c r="N49" s="3">
-        <v>63900</v>
-      </c>
-      <c r="O49" s="3">
-        <v>62600</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>63400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>64300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>153100</v>
+        <v>155000</v>
       </c>
       <c r="E52" s="3">
-        <v>25200</v>
+        <v>160900</v>
       </c>
       <c r="F52" s="3">
-        <v>25000</v>
+        <v>25800</v>
       </c>
       <c r="G52" s="3">
-        <v>28200</v>
+        <v>25600</v>
       </c>
       <c r="H52" s="3">
-        <v>30300</v>
+        <v>28900</v>
       </c>
       <c r="I52" s="3">
-        <v>20300</v>
+        <v>31000</v>
       </c>
       <c r="J52" s="3">
+        <v>20800</v>
+      </c>
+      <c r="K52" s="3">
         <v>15900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>62500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>58800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>51900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>64200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>94200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>89100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>86700</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3637200</v>
+        <v>3826500</v>
       </c>
       <c r="E54" s="3">
-        <v>4653800</v>
+        <v>3723200</v>
       </c>
       <c r="F54" s="3">
-        <v>4555700</v>
+        <v>4763800</v>
       </c>
       <c r="G54" s="3">
-        <v>4515600</v>
+        <v>4663400</v>
       </c>
       <c r="H54" s="3">
-        <v>4438700</v>
+        <v>4622300</v>
       </c>
       <c r="I54" s="3">
-        <v>4816300</v>
+        <v>4543600</v>
       </c>
       <c r="J54" s="3">
+        <v>4930100</v>
+      </c>
+      <c r="K54" s="3">
         <v>4659900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4301400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4231500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4512100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5225100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4980600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4800000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5114900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>142900</v>
+        <v>55000</v>
       </c>
       <c r="E57" s="3">
-        <v>138300</v>
+        <v>51200</v>
       </c>
       <c r="F57" s="3">
-        <v>126200</v>
+        <v>141600</v>
       </c>
       <c r="G57" s="3">
-        <v>224400</v>
+        <v>129200</v>
       </c>
       <c r="H57" s="3">
-        <v>287100</v>
+        <v>229700</v>
       </c>
       <c r="I57" s="3">
-        <v>159000</v>
+        <v>293900</v>
       </c>
       <c r="J57" s="3">
+        <v>162700</v>
+      </c>
+      <c r="K57" s="3">
         <v>135100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>53600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>79200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>138400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>146100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>133300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>132300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>60500</v>
+        <v>64200</v>
       </c>
       <c r="E58" s="3">
-        <v>64200</v>
+        <v>62000</v>
       </c>
       <c r="F58" s="3">
-        <v>58500</v>
+        <v>65800</v>
       </c>
       <c r="G58" s="3">
-        <v>60900</v>
+        <v>59900</v>
       </c>
       <c r="H58" s="3">
-        <v>56200</v>
+        <v>62300</v>
       </c>
       <c r="I58" s="3">
-        <v>59400</v>
+        <v>57600</v>
       </c>
       <c r="J58" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K58" s="3">
         <v>55800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>41600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>38700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>25700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>25400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>30000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>276400</v>
+        <v>329100</v>
       </c>
       <c r="E59" s="3">
-        <v>470800</v>
+        <v>378000</v>
       </c>
       <c r="F59" s="3">
-        <v>435200</v>
+        <v>482000</v>
       </c>
       <c r="G59" s="3">
-        <v>355400</v>
+        <v>445500</v>
       </c>
       <c r="H59" s="3">
-        <v>318500</v>
+        <v>363800</v>
       </c>
       <c r="I59" s="3">
-        <v>426900</v>
+        <v>326100</v>
       </c>
       <c r="J59" s="3">
+        <v>437000</v>
+      </c>
+      <c r="K59" s="3">
         <v>563300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>369000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>295900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>464200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>652700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>387700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>346800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>572300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>479900</v>
+        <v>448300</v>
       </c>
       <c r="E60" s="3">
-        <v>673400</v>
+        <v>491200</v>
       </c>
       <c r="F60" s="3">
-        <v>620000</v>
+        <v>689300</v>
       </c>
       <c r="G60" s="3">
-        <v>640700</v>
+        <v>634600</v>
       </c>
       <c r="H60" s="3">
-        <v>661900</v>
+        <v>655800</v>
       </c>
       <c r="I60" s="3">
-        <v>645300</v>
+        <v>677500</v>
       </c>
       <c r="J60" s="3">
+        <v>660500</v>
+      </c>
+      <c r="K60" s="3">
         <v>754200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>464100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>388000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>569200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>798700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>563700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>506400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>735200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1082300</v>
+        <v>1076200</v>
       </c>
       <c r="E61" s="3">
-        <v>1130200</v>
+        <v>1107800</v>
       </c>
       <c r="F61" s="3">
-        <v>1031700</v>
+        <v>1156900</v>
       </c>
       <c r="G61" s="3">
-        <v>1029700</v>
+        <v>1056100</v>
       </c>
       <c r="H61" s="3">
-        <v>982700</v>
+        <v>1054100</v>
       </c>
       <c r="I61" s="3">
-        <v>998300</v>
+        <v>1006000</v>
       </c>
       <c r="J61" s="3">
+        <v>1021900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1012200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>973700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>993800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>965800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1118600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1145400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1174300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1175000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>372600</v>
+        <v>359100</v>
       </c>
       <c r="E62" s="3">
-        <v>408100</v>
+        <v>381400</v>
       </c>
       <c r="F62" s="3">
-        <v>397200</v>
+        <v>417700</v>
       </c>
       <c r="G62" s="3">
-        <v>320900</v>
+        <v>406600</v>
       </c>
       <c r="H62" s="3">
-        <v>322800</v>
+        <v>328400</v>
       </c>
       <c r="I62" s="3">
-        <v>394800</v>
+        <v>330500</v>
       </c>
       <c r="J62" s="3">
+        <v>404100</v>
+      </c>
+      <c r="K62" s="3">
         <v>356700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>360600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>352800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>326400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>383900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>427900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>449000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>444100</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1947800</v>
+        <v>1896200</v>
       </c>
       <c r="E66" s="3">
-        <v>2226000</v>
+        <v>1993800</v>
       </c>
       <c r="F66" s="3">
-        <v>2061700</v>
+        <v>2278600</v>
       </c>
       <c r="G66" s="3">
-        <v>2003700</v>
+        <v>2110500</v>
       </c>
       <c r="H66" s="3">
-        <v>1996000</v>
+        <v>2051100</v>
       </c>
       <c r="I66" s="3">
-        <v>2074100</v>
+        <v>2043100</v>
       </c>
       <c r="J66" s="3">
+        <v>2123100</v>
+      </c>
+      <c r="K66" s="3">
         <v>2157400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1830300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1770200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1898800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2341600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2178400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2170600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2398800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1206300</v>
+        <v>1360900</v>
       </c>
       <c r="E72" s="3">
-        <v>2016000</v>
+        <v>1234800</v>
       </c>
       <c r="F72" s="3">
-        <v>1936700</v>
+        <v>2063600</v>
       </c>
       <c r="G72" s="3">
-        <v>1926900</v>
+        <v>1982500</v>
       </c>
       <c r="H72" s="3">
-        <v>1770100</v>
+        <v>1972400</v>
       </c>
       <c r="I72" s="3">
-        <v>2082700</v>
+        <v>1812000</v>
       </c>
       <c r="J72" s="3">
+        <v>2131900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1877800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1792200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1756900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1831900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2003500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1974000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1848900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1939500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1689400</v>
+        <v>1930300</v>
       </c>
       <c r="E76" s="3">
-        <v>2427800</v>
+        <v>1729300</v>
       </c>
       <c r="F76" s="3">
-        <v>2494000</v>
+        <v>2485200</v>
       </c>
       <c r="G76" s="3">
-        <v>2511900</v>
+        <v>2552900</v>
       </c>
       <c r="H76" s="3">
-        <v>2442700</v>
+        <v>2571200</v>
       </c>
       <c r="I76" s="3">
-        <v>2742200</v>
+        <v>2500400</v>
       </c>
       <c r="J76" s="3">
+        <v>2806900</v>
+      </c>
+      <c r="K76" s="3">
         <v>2502600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2471100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2461200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2613300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2883400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2802200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2629400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2716100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-582000</v>
+        <v>125300</v>
       </c>
       <c r="E81" s="3">
-        <v>79300</v>
+        <v>-595700</v>
       </c>
       <c r="F81" s="3">
-        <v>85600</v>
+        <v>81100</v>
       </c>
       <c r="G81" s="3">
-        <v>157400</v>
+        <v>87600</v>
       </c>
       <c r="H81" s="3">
-        <v>-197000</v>
+        <v>161100</v>
       </c>
       <c r="I81" s="3">
-        <v>203400</v>
+        <v>-201600</v>
       </c>
       <c r="J81" s="3">
+        <v>208200</v>
+      </c>
+      <c r="K81" s="3">
         <v>159200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>227700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>58900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>87500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>218400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>124800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>48300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>223700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>47500</v>
+        <v>211400</v>
       </c>
       <c r="E89" s="3">
-        <v>109700</v>
+        <v>48600</v>
       </c>
       <c r="F89" s="3">
-        <v>209800</v>
+        <v>112200</v>
       </c>
       <c r="G89" s="3">
-        <v>161200</v>
+        <v>207700</v>
       </c>
       <c r="H89" s="3">
-        <v>151800</v>
+        <v>172000</v>
       </c>
       <c r="I89" s="3">
-        <v>199400</v>
+        <v>155400</v>
       </c>
       <c r="J89" s="3">
+        <v>204100</v>
+      </c>
+      <c r="K89" s="3">
         <v>107400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>472100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>79200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>204600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>265000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>247100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>21500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>184000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-49900</v>
+        <v>-36200</v>
       </c>
       <c r="E91" s="3">
-        <v>-60800</v>
+        <v>-51100</v>
       </c>
       <c r="F91" s="3">
-        <v>-57000</v>
+        <v>-62200</v>
       </c>
       <c r="G91" s="3">
-        <v>-11300</v>
+        <v>-58300</v>
       </c>
       <c r="H91" s="3">
-        <v>-86600</v>
+        <v>-11600</v>
       </c>
       <c r="I91" s="3">
-        <v>-90200</v>
+        <v>-88600</v>
       </c>
       <c r="J91" s="3">
+        <v>-92300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-59300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-217700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-141800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-67300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-86500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-65900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-56700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-94900</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>205700</v>
+        <v>-125900</v>
       </c>
       <c r="E94" s="3">
-        <v>-78000</v>
+        <v>210600</v>
       </c>
       <c r="F94" s="3">
-        <v>-110900</v>
+        <v>-79800</v>
       </c>
       <c r="G94" s="3">
-        <v>-153800</v>
+        <v>-113600</v>
       </c>
       <c r="H94" s="3">
-        <v>-156100</v>
+        <v>-157400</v>
       </c>
       <c r="I94" s="3">
-        <v>-77800</v>
+        <v>-159800</v>
       </c>
       <c r="J94" s="3">
+        <v>-79600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-83200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-201600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-136800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-54000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-87100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-67400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-50800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>70200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4615,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-280100</v>
+        <v>600</v>
       </c>
       <c r="E96" s="3">
-        <v>-26600</v>
+        <v>-286700</v>
       </c>
       <c r="F96" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-127100</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-123000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2900</v>
       </c>
-      <c r="G96" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-124100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-120200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-294000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-247600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-53700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-4000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-5800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-261400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-88300</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-256700</v>
+        <v>-85800</v>
       </c>
       <c r="E100" s="3">
-        <v>-40200</v>
+        <v>-262700</v>
       </c>
       <c r="F100" s="3">
-        <v>-93800</v>
+        <v>-41200</v>
       </c>
       <c r="G100" s="3">
-        <v>-19800</v>
+        <v>-96000</v>
       </c>
       <c r="H100" s="3">
-        <v>-151500</v>
+        <v>-20200</v>
       </c>
       <c r="I100" s="3">
-        <v>-134200</v>
+        <v>-155100</v>
       </c>
       <c r="J100" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-55400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-308000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-271200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-64100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-32600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-29300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-280800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-101000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
-        <v>3600</v>
-      </c>
       <c r="F101" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-4300</v>
+        <v>-1100</v>
       </c>
       <c r="E102" s="3">
-        <v>-4900</v>
+        <v>-4400</v>
       </c>
       <c r="F102" s="3">
-        <v>5500</v>
+        <v>-5100</v>
       </c>
       <c r="G102" s="3">
-        <v>-12700</v>
+        <v>5600</v>
       </c>
       <c r="H102" s="3">
-        <v>-153000</v>
+        <v>-13000</v>
       </c>
       <c r="I102" s="3">
-        <v>-15700</v>
+        <v>-156600</v>
       </c>
       <c r="J102" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-30100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-43800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-330400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>85400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>145500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>149100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-311900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>159200</v>
       </c>
     </row>
